--- a/leretour/manuel/vocabulaire.xlsx
+++ b/leretour/manuel/vocabulaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/leretour/manuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2367A48A-2635-424C-B9C7-F2DF159DE23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A12044F-5732-0C48-A6BF-330C7B971CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{0E21123E-A662-2741-A5F5-03AB1B6E5065}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="247">
   <si>
     <t>FR</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>WITH</t>
+  </si>
+  <si>
+    <t>BLUE</t>
   </si>
 </sst>
 </file>
@@ -1126,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51DC3DE-58FF-F645-A0E2-B8E802529A8C}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C142"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1421,7 +1424,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">

--- a/leretour/manuel/vocabulaire.xlsx
+++ b/leretour/manuel/vocabulaire.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/leretour/manuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A12044F-5732-0C48-A6BF-330C7B971CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436CE40B-A948-7D45-BCA4-8EABD3DB334B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{0E21123E-A662-2741-A5F5-03AB1B6E5065}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$G$2:$G$121</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="406">
   <si>
     <t>FR</t>
   </si>
@@ -776,6 +779,483 @@
   </si>
   <si>
     <t>BLUE</t>
+  </si>
+  <si>
+    <t>FR MANUEL</t>
+  </si>
+  <si>
+    <t>EN MANUEL</t>
+  </si>
+  <si>
+    <t>NORTH (N)</t>
+  </si>
+  <si>
+    <t>EAST (E)</t>
+  </si>
+  <si>
+    <t>SOUTH (S)</t>
+  </si>
+  <si>
+    <t>WEST (W)</t>
+  </si>
+  <si>
+    <t>CLIMB (C)</t>
+  </si>
+  <si>
+    <t>UP (U)</t>
+  </si>
+  <si>
+    <t>DOWN (D)</t>
+  </si>
+  <si>
+    <t>TELEVISION</t>
+  </si>
+  <si>
+    <t>COOLER</t>
+  </si>
+  <si>
+    <t>RADIATOR</t>
+  </si>
+  <si>
+    <t>FLASK</t>
+  </si>
+  <si>
+    <t>NITRO</t>
+  </si>
+  <si>
+    <t>LASER</t>
+  </si>
+  <si>
+    <t>PRESS</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>BUTTON</t>
+  </si>
+  <si>
+    <t>LEARN</t>
+  </si>
+  <si>
+    <t>EXAMINE</t>
+  </si>
+  <si>
+    <t>LIBRARY</t>
+  </si>
+  <si>
+    <t>MATHEMATICS</t>
+  </si>
+  <si>
+    <t>ARLEPIN</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>ENTER</t>
+  </si>
+  <si>
+    <t>ABOARD</t>
+  </si>
+  <si>
+    <t>SAUCER</t>
+  </si>
+  <si>
+    <t>PIECE</t>
+  </si>
+  <si>
+    <t>PLACE</t>
+  </si>
+  <si>
+    <t>DRINK</t>
+  </si>
+  <si>
+    <t>GLOVE</t>
+  </si>
+  <si>
+    <t>VAPORIZER</t>
+  </si>
+  <si>
+    <t>RECORDER</t>
+  </si>
+  <si>
+    <t>CASSETTE</t>
+  </si>
+  <si>
+    <t>HELMET</t>
+  </si>
+  <si>
+    <t>STILT</t>
+  </si>
+  <si>
+    <t>CONTAINER</t>
+  </si>
+  <si>
+    <t>CHAINSAW</t>
+  </si>
+  <si>
+    <t>REMOVE</t>
+  </si>
+  <si>
+    <t>DEPOSIT</t>
+  </si>
+  <si>
+    <t>ENGAGE</t>
+  </si>
+  <si>
+    <t>ACTIVATE</t>
+  </si>
+  <si>
+    <t>GEIGER</t>
+  </si>
+  <si>
+    <t>COUNTER</t>
+  </si>
+  <si>
+    <t>REFLECT</t>
+  </si>
+  <si>
+    <t>THINK</t>
+  </si>
+  <si>
+    <t>NOTHING</t>
+  </si>
+  <si>
+    <t>SLEEP</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>CHRONOMETER</t>
+  </si>
+  <si>
+    <t>TEMPERATURE</t>
+  </si>
+  <si>
+    <t>WITHDRAW</t>
+  </si>
+  <si>
+    <t>SUICIDE</t>
+  </si>
+  <si>
+    <t>MANUAL</t>
+  </si>
+  <si>
+    <t>AUTOMATICS</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>RETIRE</t>
+  </si>
+  <si>
+    <t>BREAK</t>
+  </si>
+  <si>
+    <t>LIGHT (SWITCH ON)</t>
+  </si>
+  <si>
+    <t>TABLET</t>
+  </si>
+  <si>
+    <t>FRIDGE</t>
+  </si>
+  <si>
+    <t>COMPUTER</t>
+  </si>
+  <si>
+    <t>PUDDLE</t>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+  </si>
+  <si>
+    <t>STAIR</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>FORCE</t>
+  </si>
+  <si>
+    <t>ENERGY</t>
+  </si>
+  <si>
+    <t>SHEET</t>
+  </si>
+  <si>
+    <t>SWITCH (OFF)</t>
+  </si>
+  <si>
+    <t>RESTORE</t>
+  </si>
+  <si>
+    <t>CORRECT</t>
+  </si>
+  <si>
+    <t>TRAJECTORY</t>
+  </si>
+  <si>
+    <t>STOP (*)</t>
+  </si>
+  <si>
+    <t>MUSIC (*)</t>
+  </si>
+  <si>
+    <t>MEMORIES</t>
+  </si>
+  <si>
+    <t>GLASSES</t>
+  </si>
+  <si>
+    <t>NORD (N)</t>
+  </si>
+  <si>
+    <t>EST (E)</t>
+  </si>
+  <si>
+    <t>SUD (S)</t>
+  </si>
+  <si>
+    <t>OUEST (O)</t>
+  </si>
+  <si>
+    <t>GRIMPER (G)</t>
+  </si>
+  <si>
+    <t>MONTER (M)</t>
+  </si>
+  <si>
+    <t>DESCENDRE (D)</t>
+  </si>
+  <si>
+    <t>PRENDRE</t>
+  </si>
+  <si>
+    <t>SAISIR</t>
+  </si>
+  <si>
+    <t>RAMASSER</t>
+  </si>
+  <si>
+    <t>POSER</t>
+  </si>
+  <si>
+    <t>SAUTER</t>
+  </si>
+  <si>
+    <t>ENJAMBER</t>
+  </si>
+  <si>
+    <t>GLACIERE</t>
+  </si>
+  <si>
+    <t>OUVRIR</t>
+  </si>
+  <si>
+    <t>RADIATEUR</t>
+  </si>
+  <si>
+    <t>FLACON</t>
+  </si>
+  <si>
+    <t>BOMBE</t>
+  </si>
+  <si>
+    <t>PISTOLET</t>
+  </si>
+  <si>
+    <t>APPUYER</t>
+  </si>
+  <si>
+    <t>ENFONCER</t>
+  </si>
+  <si>
+    <t>ROUGE</t>
+  </si>
+  <si>
+    <t>JAUNE</t>
+  </si>
+  <si>
+    <t>BOUTON</t>
+  </si>
+  <si>
+    <t>APPRENDRE</t>
+  </si>
+  <si>
+    <t>EXAMINER</t>
+  </si>
+  <si>
+    <t>REGARDER</t>
+  </si>
+  <si>
+    <t>BIBLIOTHEQUE</t>
+  </si>
+  <si>
+    <t>LIVRE</t>
+  </si>
+  <si>
+    <t>MATHEMATIQUES</t>
+  </si>
+  <si>
+    <t>MEMOIRES</t>
+  </si>
+  <si>
+    <t>BOITE</t>
+  </si>
+  <si>
+    <t>REMPLIR</t>
+  </si>
+  <si>
+    <t>RETOURNER</t>
+  </si>
+  <si>
+    <t>SALLE</t>
+  </si>
+  <si>
+    <t>VAPORISATEUR</t>
+  </si>
+  <si>
+    <t>MAGNETOPHONE</t>
+  </si>
+  <si>
+    <t>LECTEUR</t>
+  </si>
+  <si>
+    <t>CASQUE</t>
+  </si>
+  <si>
+    <t>LUNETTES</t>
+  </si>
+  <si>
+    <t>ENFILER</t>
+  </si>
+  <si>
+    <t>PASSER</t>
+  </si>
+  <si>
+    <t>ENLEVER</t>
+  </si>
+  <si>
+    <t>DEPOSER</t>
+  </si>
+  <si>
+    <t>VENTILATEUR</t>
+  </si>
+  <si>
+    <t>ATTENDRE</t>
+  </si>
+  <si>
+    <t>SECOURS</t>
+  </si>
+  <si>
+    <t>DEMANDER</t>
+  </si>
+  <si>
+    <t>ECOUTER</t>
+  </si>
+  <si>
+    <t>CHRONOMETRE</t>
+  </si>
+  <si>
+    <t>QUITTER</t>
+  </si>
+  <si>
+    <t>ABANDONNER</t>
+  </si>
+  <si>
+    <t>SUICIDER</t>
+  </si>
+  <si>
+    <t>MANUEL</t>
+  </si>
+  <si>
+    <t>AUTOMATIQUE</t>
+  </si>
+  <si>
+    <t>FERMER</t>
+  </si>
+  <si>
+    <t>ROBINET</t>
+  </si>
+  <si>
+    <t>RETIRER</t>
+  </si>
+  <si>
+    <t>RESPIRER</t>
+  </si>
+  <si>
+    <t>SOUFFLER</t>
+  </si>
+  <si>
+    <t>ALLUMER</t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>REFRIGERATEUR</t>
+  </si>
+  <si>
+    <t>FRIGIDAIRE</t>
+  </si>
+  <si>
+    <t>ORDINATEUR</t>
+  </si>
+  <si>
+    <t>PORTER</t>
+  </si>
+  <si>
+    <t>LISTER</t>
+  </si>
+  <si>
+    <t>INVENTAIRE</t>
+  </si>
+  <si>
+    <t>ESCALIER</t>
+  </si>
+  <si>
+    <t>VIDER</t>
+  </si>
+  <si>
+    <t>VERSER</t>
+  </si>
+  <si>
+    <t>RENVOYVER</t>
+  </si>
+  <si>
+    <t>ENERGIE</t>
+  </si>
+  <si>
+    <t>TOURNER</t>
+  </si>
+  <si>
+    <t>FEUILLE</t>
+  </si>
+  <si>
+    <t>SAUVER</t>
+  </si>
+  <si>
+    <t>ENREGISTRER</t>
+  </si>
+  <si>
+    <t>ETEINDRE</t>
+  </si>
+  <si>
+    <t>CORRIGER</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>RANGER</t>
   </si>
 </sst>
 </file>
@@ -1127,435 +1607,748 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51DC3DE-58FF-F645-A0E2-B8E802529A8C}">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>385</v>
+      </c>
+      <c r="G6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>379</v>
+      </c>
+      <c r="G13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>356</v>
+      </c>
+      <c r="G17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>342</v>
+      </c>
+      <c r="G18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>348</v>
+      </c>
+      <c r="G19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>363</v>
+      </c>
+      <c r="G20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>374</v>
+      </c>
+      <c r="G22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>403</v>
+      </c>
+      <c r="G27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>372</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>368</v>
+      </c>
+      <c r="G31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="C32" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>331</v>
+      </c>
+      <c r="G32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="C35" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="C37" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>373</v>
+      </c>
+      <c r="G37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="C38" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>397</v>
+      </c>
+      <c r="G39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>365</v>
+      </c>
+      <c r="G40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="C41" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>345</v>
+      </c>
+      <c r="G41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>337</v>
+      </c>
+      <c r="G42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>367</v>
+      </c>
+      <c r="G43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>401</v>
+      </c>
+      <c r="G44" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="C45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="C46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>225</v>
+      </c>
+      <c r="G47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="C48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="C49" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>402</v>
+      </c>
+      <c r="G49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="C50" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="C51" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>380</v>
+      </c>
+      <c r="G51" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="C52" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>399</v>
+      </c>
+      <c r="G52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1565,8 +2358,14 @@
       <c r="C53" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>341</v>
+      </c>
+      <c r="G53" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1576,8 +2375,14 @@
       <c r="C54" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>226</v>
+      </c>
+      <c r="G54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1587,8 +2392,14 @@
       <c r="C55" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>314</v>
+      </c>
+      <c r="G55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1598,8 +2409,14 @@
       <c r="C56" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1609,8 +2426,14 @@
       <c r="C57" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1620,88 +2443,154 @@
       <c r="C58" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>290</v>
+      </c>
+      <c r="G58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="C59" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>338</v>
+      </c>
+      <c r="G59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="C60" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>329</v>
+      </c>
+      <c r="G60" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="C61" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="C62" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>392</v>
+      </c>
+      <c r="G62" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="C63" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>347</v>
+      </c>
+      <c r="G63" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="C64" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>261</v>
+      </c>
+      <c r="G64" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="C65" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>362</v>
+      </c>
+      <c r="G65" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="C66" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="C67" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="C68" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>391</v>
+      </c>
+      <c r="G68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1711,8 +2600,14 @@
       <c r="C69" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>353</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1722,8 +2617,14 @@
       <c r="C70" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1733,8 +2634,14 @@
       <c r="C71" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>364</v>
+      </c>
+      <c r="G71" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1744,48 +2651,84 @@
       <c r="C72" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>361</v>
+      </c>
+      <c r="G72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="C73" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>378</v>
+      </c>
+      <c r="G73" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="C74" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>354</v>
+      </c>
+      <c r="G74" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="C75" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>355</v>
+      </c>
+      <c r="G75" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="C76" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="C77" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>330</v>
+      </c>
+      <c r="G77" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1795,8 +2738,14 @@
       <c r="C78" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>322</v>
+      </c>
+      <c r="G78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1806,8 +2755,14 @@
       <c r="C79" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>260</v>
+      </c>
+      <c r="G79" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1817,24 +2772,42 @@
       <c r="C80" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>325</v>
+      </c>
+      <c r="G80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
       <c r="C81" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>389</v>
+      </c>
+      <c r="G81" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
       <c r="C82" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>328</v>
+      </c>
+      <c r="G82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -1844,8 +2817,14 @@
       <c r="C83" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>339</v>
+      </c>
+      <c r="G83" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -1855,8 +2834,14 @@
       <c r="C84" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>125</v>
+      </c>
+      <c r="G84" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -1866,48 +2851,84 @@
       <c r="C85" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>366</v>
+      </c>
+      <c r="G85" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
       <c r="C86" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>199</v>
+      </c>
+      <c r="G86" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
       <c r="C87" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>275</v>
+      </c>
+      <c r="G87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
       <c r="C88" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>343</v>
+      </c>
+      <c r="G88" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
       <c r="C89" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>390</v>
+      </c>
+      <c r="G89" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
       <c r="C90" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>335</v>
+      </c>
+      <c r="G90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -1917,8 +2938,14 @@
       <c r="C91" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>332</v>
+      </c>
+      <c r="G91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -1928,96 +2955,168 @@
       <c r="C92" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>375</v>
+      </c>
+      <c r="G92" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
       <c r="C93" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>340</v>
+      </c>
+      <c r="G93" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
       <c r="C94" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>334</v>
+      </c>
+      <c r="G94" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>95</v>
       </c>
       <c r="C95" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>405</v>
+      </c>
+      <c r="G95" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
       <c r="C96" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>198</v>
+      </c>
+      <c r="G96" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
       <c r="C97" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>387</v>
+      </c>
+      <c r="G97" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>98</v>
       </c>
       <c r="C98" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>351</v>
+      </c>
+      <c r="G98" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>99</v>
       </c>
       <c r="C99" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>357</v>
+      </c>
+      <c r="G99" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>100</v>
       </c>
       <c r="C100" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>396</v>
+      </c>
+      <c r="G100" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>101</v>
       </c>
       <c r="C101" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>383</v>
+      </c>
+      <c r="G101" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>102</v>
       </c>
       <c r="C102" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>236</v>
+      </c>
+      <c r="G102" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>103</v>
       </c>
       <c r="C103" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>382</v>
+      </c>
+      <c r="G103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2027,64 +3126,112 @@
       <c r="C104" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>358</v>
+      </c>
+      <c r="G104" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>105</v>
       </c>
       <c r="C105" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>86</v>
+      </c>
+      <c r="G105" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
       <c r="C106" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>381</v>
+      </c>
+      <c r="G106" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
       <c r="C107" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
+        <v>346</v>
+      </c>
+      <c r="G107" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
       <c r="C108" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>333</v>
+      </c>
+      <c r="G108" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
       <c r="C109" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E109" t="s">
+        <v>359</v>
+      </c>
+      <c r="G109" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
       <c r="C110" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E110" t="s">
+        <v>115</v>
+      </c>
+      <c r="G110" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
       <c r="C111" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
+        <v>336</v>
+      </c>
+      <c r="G111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2094,8 +3241,14 @@
       <c r="C112" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>400</v>
+      </c>
+      <c r="G112" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2105,168 +3258,258 @@
       <c r="C113" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
+        <v>127</v>
+      </c>
+      <c r="G113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
       <c r="C114" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>371</v>
+      </c>
+      <c r="G114" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
       <c r="C115" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
+        <v>217</v>
+      </c>
+      <c r="G115" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>116</v>
       </c>
       <c r="C116" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E116" t="s">
+        <v>384</v>
+      </c>
+      <c r="G116" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>117</v>
       </c>
       <c r="C117" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
+        <v>321</v>
+      </c>
+      <c r="G117" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>118</v>
       </c>
       <c r="C118" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>327</v>
+      </c>
+      <c r="G118" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>119</v>
       </c>
       <c r="C119" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
+        <v>377</v>
+      </c>
+      <c r="G119" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>120</v>
       </c>
       <c r="C120" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E120" t="s">
+        <v>386</v>
+      </c>
+      <c r="G120" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>121</v>
       </c>
       <c r="C121" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E121" t="s">
+        <v>256</v>
+      </c>
+      <c r="G121" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>122</v>
       </c>
       <c r="C122" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E122" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>123</v>
       </c>
       <c r="C123" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E123" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>124</v>
       </c>
       <c r="C124" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E124" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>125</v>
       </c>
       <c r="C125" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E125" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>126</v>
       </c>
       <c r="C126" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E126" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>127</v>
       </c>
       <c r="C127" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>128</v>
       </c>
       <c r="C128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>129</v>
       </c>
       <c r="C129" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E129" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>130</v>
       </c>
       <c r="C130" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E130" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>131</v>
       </c>
       <c r="C131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E131" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>132</v>
       </c>
       <c r="C132" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E132" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>133</v>
       </c>
       <c r="C133" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E133" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2277,7 +3520,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2285,7 +3528,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2296,7 +3539,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2307,7 +3550,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2315,7 +3558,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2323,7 +3566,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2331,7 +3574,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2339,7 +3582,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2348,6 +3591,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E133">
+    <sortCondition ref="E2:E133"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>